--- a/filename.xlsx
+++ b/filename.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -805,7 +805,20 @@
         <v>45135</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.6096577930902778</v>
+        <v>0.6096577893518518</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moiseeva Ekaterina Dm </t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>45135</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>0.6221508535532407</v>
       </c>
     </row>
   </sheetData>
